--- a/data_craw/quarter/income_statement_quarter/acb.xlsx
+++ b/data_craw/quarter/income_statement_quarter/acb.xlsx
@@ -441,82 +441,82 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2019_q3</t>
+          <t>2020_q3</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2019_q4</t>
+          <t>2020_q4</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2020_q1</t>
+          <t>2021_q1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2020_q2</t>
+          <t>2021_q2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2020_q3</t>
+          <t>2021_q3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2020_q4</t>
+          <t>2021_q4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2021_q1</t>
+          <t>2022_q1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2021_q2</t>
+          <t>2022_q2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2021_q3</t>
+          <t>2022_q3</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2021_q4</t>
+          <t>2022_q4</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2022_q1</t>
+          <t>2023_q1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2022_q2</t>
+          <t>2023_q2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2022_q3</t>
+          <t>2023_q3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2022_q4</t>
+          <t>2023_q4</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2023_q1</t>
+          <t>2024_q1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2023_q2</t>
+          <t>2024_q2</t>
         </is>
       </c>
     </row>
@@ -573,53 +573,45 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88345000000</v>
+        <v>154046000000</v>
       </c>
       <c r="C4" t="n">
-        <v>841003000000</v>
+        <v>136332000000</v>
       </c>
       <c r="D4" t="n">
-        <v>122407000000</v>
+        <v>246046000000</v>
       </c>
       <c r="E4" t="n">
-        <v>82674000000</v>
+        <v>174708000000</v>
       </c>
       <c r="F4" t="n">
-        <v>154046000000</v>
+        <v>148382000000</v>
       </c>
       <c r="G4" t="n">
-        <v>136332000000</v>
+        <v>134023000000</v>
       </c>
       <c r="H4" t="n">
-        <v>246046000000</v>
+        <v>429099000000</v>
       </c>
       <c r="I4" t="n">
-        <v>174708000000</v>
+        <v>412721000000</v>
       </c>
       <c r="J4" t="n">
-        <v>148382000000</v>
+        <v>104791000000</v>
       </c>
       <c r="K4" t="n">
-        <v>134023000000</v>
+        <v>163883000000</v>
       </c>
       <c r="L4" t="n">
-        <v>429099000000</v>
+        <v>576702000000</v>
       </c>
       <c r="M4" t="n">
-        <v>412721000000</v>
-      </c>
-      <c r="N4" t="n">
-        <v>104791000000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>163883000000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>576702000000</v>
-      </c>
-      <c r="Q4" t="n">
         <v>200858000000</v>
       </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -628,53 +620,45 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4425000000</v>
+        <v>42811000000</v>
       </c>
       <c r="C5" t="n">
-        <v>38054000000</v>
+        <v>70416000000</v>
       </c>
       <c r="D5" t="n">
-        <v>41898000000</v>
+        <v>197099000000</v>
       </c>
       <c r="E5" t="n">
-        <v>60684000000</v>
+        <v>195620000000</v>
       </c>
       <c r="F5" t="n">
-        <v>42811000000</v>
+        <v>106055000000</v>
       </c>
       <c r="G5" t="n">
-        <v>70416000000</v>
+        <v>64922000000</v>
       </c>
       <c r="H5" t="n">
-        <v>197099000000</v>
+        <v>59908000000</v>
       </c>
       <c r="I5" t="n">
-        <v>195620000000</v>
+        <v>56632000000</v>
       </c>
       <c r="J5" t="n">
-        <v>106055000000</v>
+        <v>19046000000</v>
       </c>
       <c r="K5" t="n">
-        <v>64922000000</v>
+        <v>23306000000</v>
       </c>
       <c r="L5" t="n">
-        <v>59908000000</v>
+        <v>9458000000</v>
       </c>
       <c r="M5" t="n">
-        <v>56632000000</v>
-      </c>
-      <c r="N5" t="n">
-        <v>19046000000</v>
-      </c>
-      <c r="O5" t="n">
-        <v>23306000000</v>
-      </c>
-      <c r="P5" t="n">
-        <v>9458000000</v>
-      </c>
-      <c r="Q5" t="n">
         <v>37975000000</v>
       </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -706,53 +690,45 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1549212000000</v>
+        <v>2074572000000</v>
       </c>
       <c r="C7" t="n">
-        <v>1549241000000</v>
+        <v>2549543000000</v>
       </c>
       <c r="D7" t="n">
-        <v>1537053000000</v>
+        <v>2483401000000</v>
       </c>
       <c r="E7" t="n">
-        <v>1521655000000</v>
+        <v>2588235000000</v>
       </c>
       <c r="F7" t="n">
-        <v>2074572000000</v>
+        <v>2102615000000</v>
       </c>
       <c r="G7" t="n">
-        <v>2549543000000</v>
+        <v>2428495000000</v>
       </c>
       <c r="H7" t="n">
-        <v>2483401000000</v>
+        <v>3287535000000</v>
       </c>
       <c r="I7" t="n">
-        <v>2588235000000</v>
+        <v>3943148000000</v>
       </c>
       <c r="J7" t="n">
-        <v>2102615000000</v>
+        <v>3586992000000</v>
       </c>
       <c r="K7" t="n">
-        <v>2428495000000</v>
+        <v>2870518000000</v>
       </c>
       <c r="L7" t="n">
-        <v>3287535000000</v>
+        <v>4135029000000</v>
       </c>
       <c r="M7" t="n">
-        <v>3943148000000</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3586992000000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2870518000000</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4135029000000</v>
-      </c>
-      <c r="Q7" t="n">
         <v>3865846000000</v>
       </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
